--- a/new_structure/static/templates/student_upload_template.xlsx
+++ b/new_structure/static/templates/student_upload_template.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Students" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instructions" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,13 +29,28 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="001F7D53"/>
+      <sz val="14"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001F7D53"/>
+        <bgColor rgb="001F7D53"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,8 +71,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -425,13 +447,20 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="17" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="9" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -446,6 +475,16 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>grade</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>gender</t>
         </is>
       </c>
@@ -463,6 +502,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Grade 4</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Male</t>
         </is>
       </c>
@@ -480,6 +529,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Grade 4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Female</t>
         </is>
       </c>
@@ -487,7 +546,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Alex Johnson</t>
+          <t>Michael Johnson</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -497,9 +556,385 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>Grade 4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Male</t>
         </is>
       </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Emily Brown</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ADM004</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Grade 5</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>David Wilson</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ADM005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Grade 5</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Sarah Davis</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ADM006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Grade 6</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>James Miller</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Grade 6</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Lisa Anderson</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ADM008</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Grade 4</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="40" customWidth="1" min="1" max="1"/>
+    <col width="40" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Instruction</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>📋 Student Upload Template Instructions</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Required Columns:</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>• name</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Student's full name (REQUIRED)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Optional Columns:</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>• admission_number</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Student's admission/registration number</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>• grade</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Student's grade (e.g., 'Grade 4', 'Grade 5')</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>• stream</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Student's stream (e.g., 'A', 'B', 'C')</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>• gender</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Student's gender (Male/Female)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Column Name Variations Supported:</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Name variations:</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>name, student_name, full_name</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Admission variations:</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>admission_number, addmission_number, adm_number, reg_number</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Important Notes:</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>• Only 'name' column is required</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>• Admission numbers will be auto-generated if missing</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>• Grade and stream will auto-assign students to correct classes</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>• System handles column name variations automatically</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>• Remove this instructions sheet before uploading</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Example Data:</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>See the 'Students' sheet for sample data format</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
